--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.6782594751</v>
+        <v>284268.3475264954</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362874</v>
+        <v>8666268.959347742</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819594</v>
+        <v>8778504.334061947</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="E2" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.77198705867351</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="F3" t="n">
-        <v>92.6649492891022</v>
+        <v>52.04897529147647</v>
       </c>
       <c r="G3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77.29308816345808</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>21.41405905276482</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="H5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>112.1126601249237</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>64.54245901085132</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>69.51926550671388</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J6" t="n">
-        <v>7.396679373398329</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144.6751566710423</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>39.70122005611984</v>
       </c>
       <c r="F8" t="n">
-        <v>144.6751566710423</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.362414515198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>127.429877995854</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>144.6751566710423</v>
+        <v>171.100474487651</v>
       </c>
     </row>
     <row r="10">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>351.0964192978445</v>
       </c>
       <c r="F11" t="n">
-        <v>187.52558716632</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>165.1725371760945</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>187.52558716632</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>34.92041296071481</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>187.52558716632</v>
+        <v>225.7871683969292</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.52558716632</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17.12830321063452</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>187.5255871663199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>187.5255871663199</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663199</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>165.1725371760945</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>141.0331462360212</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663199</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.1725371760946</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.02930569165426</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>37.84125266805163</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>365.5457252263874</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609202</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>115.0138334144186</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24.86119468661601</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>96.97390940101978</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>24.90282215867821</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.61386785677288</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>140.5582313120315</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>142.0975176632396</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>59.50273983305965</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>18.56488642963173</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>64.92510123383865</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>43.58035547795852</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>95.44336989065498</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>50.8439936530629</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>281.841801725266</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.13920556219519</v>
+        <v>3.013844480175844</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>374.5231054558184</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>22.79319361026421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>122.0065063168757</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>240.2648719523401</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>142.9824281355623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.118847112890157</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>227.735996773493</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>200.1365534425737</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>54.45803047044429</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>148.4348925031071</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>261.6839624475261</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>283.9746808062634</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>153.2230134806006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>136.0870494265614</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>81.4608434426853</v>
+        <v>1.154551188815767</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.6597971564088</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="C2" t="n">
-        <v>370.6597971564088</v>
+        <v>142.396238631475</v>
       </c>
       <c r="D2" t="n">
-        <v>370.6597971564088</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>288.2160725767712</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>194.6151136988902</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>101.0141548210092</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>53.10181779182994</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056148</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>407.6508467588561</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="X2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.6597971564088</v>
+        <v>439.0550691137147</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322.4052647739103</v>
+        <v>212.6518274448594</v>
       </c>
       <c r="C3" t="n">
-        <v>322.4052647739103</v>
+        <v>212.6518274448594</v>
       </c>
       <c r="D3" t="n">
-        <v>322.4052647739103</v>
+        <v>212.6518274448594</v>
       </c>
       <c r="E3" t="n">
-        <v>322.4052647739103</v>
+        <v>64.32241220373959</v>
       </c>
       <c r="F3" t="n">
-        <v>228.8043058960293</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>135.2033470181483</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>41.60238814026729</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>41.60238814026729</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201163</v>
+        <v>51.36582106616817</v>
       </c>
       <c r="L3" t="n">
-        <v>102.6982772648967</v>
+        <v>150.9598290415667</v>
       </c>
       <c r="M3" t="n">
-        <v>134.8197310560413</v>
+        <v>248.1447726172889</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522524</v>
+        <v>393.5224324951104</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514005</v>
+        <v>511.7941057756092</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>370.6597971564088</v>
+        <v>509.3106579270991</v>
       </c>
       <c r="S3" t="n">
-        <v>370.6597971564088</v>
+        <v>509.3106579270991</v>
       </c>
       <c r="T3" t="n">
-        <v>370.6597971564088</v>
+        <v>360.9812426859793</v>
       </c>
       <c r="U3" t="n">
-        <v>370.6597971564088</v>
+        <v>360.9812426859793</v>
       </c>
       <c r="V3" t="n">
-        <v>370.6597971564088</v>
+        <v>360.9812426859793</v>
       </c>
       <c r="W3" t="n">
-        <v>370.6597971564088</v>
+        <v>212.6518274448594</v>
       </c>
       <c r="X3" t="n">
-        <v>370.6597971564088</v>
+        <v>212.6518274448594</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.6597971564088</v>
+        <v>212.6518274448594</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>14.12595803543243</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>19.89179156510274</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.4869038041714</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="C5" t="n">
-        <v>367.4869038041714</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="D5" t="n">
-        <v>367.4869038041714</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="E5" t="n">
-        <v>367.4869038041714</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="F5" t="n">
-        <v>367.4869038041714</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="G5" t="n">
-        <v>254.2417925668748</v>
+        <v>142.396238631475</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9966813295781</v>
+        <v>142.396238631475</v>
       </c>
       <c r="I5" t="n">
-        <v>27.75157009228141</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687545</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773399</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320676</v>
+        <v>407.6508467588561</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416799</v>
+        <v>523.2361246735304</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996948</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q5" t="n">
-        <v>432.6813068454354</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R5" t="n">
-        <v>367.4869038041714</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S5" t="n">
-        <v>367.4869038041714</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T5" t="n">
-        <v>367.4869038041714</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U5" t="n">
-        <v>367.4869038041714</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V5" t="n">
-        <v>367.4869038041714</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W5" t="n">
-        <v>367.4869038041714</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="X5" t="n">
-        <v>367.4869038041714</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.4869038041714</v>
+        <v>439.0550691137147</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44040611645686</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44040611645686</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44040611645686</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44040611645686</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44040611645686</v>
+        <v>144.1910958994798</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44040611645686</v>
+        <v>73.96961558966784</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44040611645686</v>
+        <v>73.96961558966784</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44040611645686</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993897</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640697</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953196</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996948</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q6" t="n">
-        <v>439.1005811301782</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R6" t="n">
-        <v>356.1757398283469</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S6" t="n">
-        <v>242.9306285910502</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T6" t="n">
-        <v>129.6855173537535</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U6" t="n">
-        <v>16.44040611645686</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V6" t="n">
-        <v>16.44040611645686</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44040611645686</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44040611645686</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44040611645686</v>
+        <v>439.0550691137147</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>12.63101027343186</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993897</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.0103700789526</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C8" t="n">
-        <v>164.8738481890109</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D8" t="n">
-        <v>164.8738481890109</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="E8" t="n">
-        <v>164.8738481890109</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="F8" t="n">
-        <v>18.7373262990692</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G8" t="n">
-        <v>18.7373262990692</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>18.7373262990692</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>18.7373262990692</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>734.4611726020267</v>
       </c>
       <c r="Q8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X8" t="n">
-        <v>577.7149874387914</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y8" t="n">
-        <v>457.1468919688944</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>286.4275829042857</v>
+        <v>236.5707260946529</v>
       </c>
       <c r="C9" t="n">
-        <v>286.4275829042857</v>
+        <v>236.5707260946529</v>
       </c>
       <c r="D9" t="n">
-        <v>140.291061014344</v>
+        <v>236.5707260946529</v>
       </c>
       <c r="E9" t="n">
-        <v>140.291061014344</v>
+        <v>236.5707260946529</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57401253368338</v>
+        <v>90.03616812153786</v>
       </c>
       <c r="G9" t="n">
-        <v>11.57401253368338</v>
+        <v>90.03616812153786</v>
       </c>
       <c r="H9" t="n">
-        <v>11.57401253368338</v>
+        <v>90.03616812153786</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>11.57401253368338</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>110.1287797974577</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
-        <v>244.4944128384901</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>386.8913402620005</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>504.0242257254407</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>578.7006266841692</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T9" t="n">
-        <v>578.7006266841692</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U9" t="n">
-        <v>578.7006266841692</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="V9" t="n">
-        <v>578.7006266841692</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="W9" t="n">
-        <v>578.7006266841692</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="X9" t="n">
-        <v>432.5641047942274</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="Y9" t="n">
-        <v>286.4275829042857</v>
+        <v>236.5707260946529</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="R10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="T10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="V10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.2627786323101</v>
+        <v>2016.438433460088</v>
       </c>
       <c r="C11" t="n">
-        <v>371.2627786323101</v>
+        <v>1647.475916519677</v>
       </c>
       <c r="D11" t="n">
-        <v>371.2627786323101</v>
+        <v>1289.210217912926</v>
       </c>
       <c r="E11" t="n">
-        <v>371.2627786323101</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>181.8429936158253</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>15.0020469733056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>15.0020469733056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678478</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644753</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985584</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020266</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652798</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652798</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>560.6825636487949</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>560.6825636487949</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>371.2627786323101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>371.2627786323101</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X11" t="n">
-        <v>371.2627786323101</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y11" t="n">
-        <v>371.2627786323101</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>335.9896342275476</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>161.5366049464206</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>161.5366049464206</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>161.5366049464206</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0020469733056</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0020469733056</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0020469733056</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0020469733056</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024242</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>183.554828077265</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140246</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546604</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476351</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017064</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652798</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652798</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652798</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>714.8292042605174</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>525.4094192440325</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>525.4094192440325</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>525.4094192440325</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>525.4094192440325</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>335.9896342275476</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.0020469733056</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0020469733056</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0020469733056</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0020469733056</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0020469733056</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0020469733056</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230176</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828987</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="X13" t="n">
-        <v>15.0020469733056</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.0020469733056</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>583.26140202276</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C14" t="n">
-        <v>393.8416170062752</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>204.4218319897904</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>204.4218319897904</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>15.00204697330559</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330559</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985582</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020265</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652797</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652797</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652797</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>583.26140202276</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>583.26140202276</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>583.26140202276</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>583.26140202276</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X14" t="n">
-        <v>583.26140202276</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y14" t="n">
-        <v>583.26140202276</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.00204697330559</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>15.00204697330562</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330562</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330562</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330562</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330562</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330562</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330562</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024216</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140244</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476348</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017063</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652797</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652797</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652797</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652797</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652797</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>560.6825636487949</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>371.2627786323102</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>181.8429936158254</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.00204697330559</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.00204697330559</v>
+        <v>449.8213709509852</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330559</v>
+        <v>449.8213709509852</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330559</v>
+        <v>449.8213709509852</v>
       </c>
       <c r="E16" t="n">
-        <v>15.00204697330559</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330559</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230176</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W16" t="n">
-        <v>15.00204697330559</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00204697330559</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.00204697330559</v>
+        <v>631.4698357812249</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.52858457759</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>810.5660676371781</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176918</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="W17" t="n">
-        <v>2325.505862906803</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X17" t="n">
-        <v>1956.267756617523</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.128424641711</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5597,49 +5597,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.687705739677</v>
+        <v>410.6772566376948</v>
       </c>
       <c r="C19" t="n">
-        <v>182.687705739677</v>
+        <v>241.7410737097879</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>91.62443429745213</v>
       </c>
       <c r="E19" t="n">
         <v>66.51211643218343</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812244</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832071</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.687705739677</v>
+        <v>410.6772566376948</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.300932605789</v>
+        <v>1715.892666966217</v>
       </c>
       <c r="C20" t="n">
-        <v>1175.300932605789</v>
+        <v>1715.892666966217</v>
       </c>
       <c r="D20" t="n">
-        <v>817.0352339990384</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>431.2469814007941</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>431.2469814007941</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
         <v>406.0926155839475</v>
@@ -5749,13 +5749,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176916</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906802</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645722</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.900772669911</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>449.8213709509845</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>280.8851880230776</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>130.7685486107419</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W22" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X22" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y22" t="n">
-        <v>631.4698357812242</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3071.782307011781</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3071.782307011781</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2740.71941966821</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="24">
@@ -6044,70 +6044,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.230932223169</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.230932223169</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>3175.671586757547</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>2953.904971327073</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U25" t="n">
-        <v>2953.904971327073</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V25" t="n">
-        <v>2699.220483121187</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W25" t="n">
-        <v>2699.220483121187</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X25" t="n">
-        <v>2471.230932223169</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y25" t="n">
-        <v>2471.230932223169</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024.960096412931</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C26" t="n">
-        <v>1655.99757947252</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D26" t="n">
-        <v>1297.731880865769</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2788.565186649823</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W26" t="n">
-        <v>2788.565186649823</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X26" t="n">
-        <v>2415.099428388743</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.960096412931</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="27">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.9195607661784</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>162.9195607661784</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6393,43 +6393,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>162.9195607661784</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>162.9195607661784</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>162.9195607661784</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.9195607661784</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>3163.957583789738</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2811.188928519624</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X29" t="n">
-        <v>2437.723170258544</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.583838282732</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>666.2025176122982</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="C31" t="n">
-        <v>666.2025176122982</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="D31" t="n">
-        <v>666.2025176122982</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>666.2025176122982</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W31" t="n">
-        <v>666.2025176122982</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="X31" t="n">
-        <v>666.2025176122982</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.2025176122982</v>
+        <v>216.4463512838067</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1712.341567565137</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C32" t="n">
-        <v>1343.379050624726</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D32" t="n">
-        <v>1343.379050624726</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E32" t="n">
-        <v>957.5907980264815</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>546.604893236874</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>131.5324430818704</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605071</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.941407629259</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
         <v>66.5121164321834</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>583.9188373671614</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W34" t="n">
-        <v>294.5016673302007</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="X34" t="n">
-        <v>66.5121164321834</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038042</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.40402049088</v>
+        <v>1177.259159988174</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102164</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.8870058181849</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C37" t="n">
-        <v>920.8870058181849</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D37" t="n">
-        <v>770.7703664058491</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>622.857272823456</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>475.9673253255456</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>308.2644887002646</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7134,13 +7134,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.569348694472</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.60683175406</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.60683175406</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1122.60683175406</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>711.6209269644526</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>296.548476809449</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734405</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758593</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="39">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
         <v>66.5121164321834</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="X40" t="n">
-        <v>692.8974549201675</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="Y40" t="n">
-        <v>472.1048757766374</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.569348694472</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.60683175406</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D41" t="n">
-        <v>764.3411331473096</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>764.3411331473096</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>353.3552283577021</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7447,16 +7447,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734405</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758593</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>666.202517612298</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>516.0858781999623</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>368.1727846175692</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>221.2828371196588</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7608,13 +7608,13 @@
         <v>666.202517612298</v>
       </c>
       <c r="W43" t="n">
-        <v>376.7853475753374</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X43" t="n">
-        <v>148.7957966773201</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.5121164321834</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410101</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W44" t="n">
-        <v>2961.784676410101</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7727,10 +7727,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
         <v>66.5121164321834</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>838.6033255730482</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="V46" t="n">
-        <v>583.9188373671614</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="W46" t="n">
-        <v>294.5016673302007</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="X46" t="n">
-        <v>66.5121164321834</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.5121164321834</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822989</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>225.3409781657484</v>
       </c>
       <c r="E2" t="n">
-        <v>300.3110827384206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>320.7982251355236</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>227.9704273259875</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>6.324764167328738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>86.27197698880636</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>215.0431621354273</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.7611965911938</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>10.79895936669232</v>
       </c>
       <c r="F3" t="n">
-        <v>52.40426310428168</v>
+        <v>93.02023710190741</v>
       </c>
       <c r="G3" t="n">
-        <v>43.69431484884211</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>10.06468283495377</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827331</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,25 +22670,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>153.4011028494393</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>196.197498299121</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>145.653503011476</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>61.70981873818781</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>21.72895798776027</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>7.935701265474364</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>26.04487966482526</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>74.18139529270549</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822989</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>301.2760442195641</v>
+        <v>266.398015971523</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7600497819524</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>24.57246563410428</v>
+        <v>1.769632077807984</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>30.81069264761078</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101212</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>214.717169359623</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0.598944475930125</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3194191323308</v>
+        <v>66.72280330932838</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.68614166527838</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S6" t="n">
-        <v>40.54833922112491</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>83.92423484016749</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22950,55 +22950,55 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>125.0199035938044</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7157523946084789</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.0586849924383</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
-        <v>220.5977350999653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>342.2291500161419</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2008890706692</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2531730278943</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1816877488572</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.8755241408555</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>2.769908893596465</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>17.63933439752986</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.7446060180399</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8692364442482</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>61.09782853243519</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.00753910626207</v>
+        <v>34.58222128965335</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,28 +23217,28 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6.942280051143417</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693937</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>30.83395077441725</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753915</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>247.9252960539635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.91829388988683</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>160.4891848312865</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377098</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.15710861098441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>173.4937091346027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>201.4563501414603</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>177.7473046046876</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>167.157454454363</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753915</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.097833230058</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>48.27134388011225</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>208.2078224813918</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310535</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459968</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715755</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.51015860120975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,25 +23661,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>78.40465695491491</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,28 +23694,28 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>154.5643095410618</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>289.9110058020833</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.185375452081587</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33.60163960379373</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>121.5727679599532</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>257.7091322196632</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>386.0189034947753</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>82.82009478979629</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>224.7146604589761</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>61.82045247638058</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>130.2662854983822</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>267.9581119069593</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>317.0052688384231</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>284.1719029921764</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>53.17210312755738</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>276.908264817072</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>104.3961369307876</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>105.294757084374</v>
+        <v>143.4201181663933</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8.210736207662137</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.8145707770562</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>138.0881058334839</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>164.5164920197153</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>141.6654981199216</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.772586778758523</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>284.4041512237009</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>66.8717676138275</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>149.1044152748393</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>94.15744254776807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>70.14976084898771</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>121.0498792159544</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>126.94704484719</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25687,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>12.8027947784276</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.1238099094095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>82.8793596908057</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>233.6440512519076</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>204.7509947629276</v>
+        <v>285.0572870167971</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362616.6230072703</v>
+        <v>409992.2446053786</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379382.0342027748</v>
+        <v>409992.2446053786</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248169</v>
+        <v>441595.05806134</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.05806134</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.05806134</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116310.9922853508</v>
+        <v>131506.9463828572</v>
       </c>
       <c r="C2" t="n">
-        <v>121688.5770084371</v>
+        <v>131506.9463828572</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>141643.6978687317</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.830763437</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="H2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="I2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634372</v>
       </c>
       <c r="J2" t="n">
         <v>279684.8307634371</v>
@@ -26343,19 +26343,19 @@
         <v>279684.830763437</v>
       </c>
       <c r="L2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="M2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="N2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="O2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="P2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634369</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>542655.4349751305</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443034</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819869</v>
+        <v>43803.80384074445</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.31016216653</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090869</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179791</v>
+        <v>38421.40650613402</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393711</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353612</v>
+        <v>10295.60674904873</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114517</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668551</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>107.1921479602629</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131214</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-477765.1420374581</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574276</v>
+        <v>64890.29293767233</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.62979721372</v>
+        <v>28522.23147926669</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687925</v>
+        <v>-426414.7957988</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>200719.847834868</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.8427960493</v>
+        <v>200719.847834868</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.8478348683</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212398</v>
+        <v>162298.441328734</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706438</v>
+        <v>200719.847834868</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.5683996839</v>
+        <v>190424.2410858193</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318923</v>
+        <v>40263.40596699056</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130377</v>
+        <v>200719.847834868</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.4716461825</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130375</v>
+        <v>200719.8478348679</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572209</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572209</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>36.39307775568363</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175426</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.3067596803937</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582151</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611858</v>
+        <v>40.67946607761132</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527766</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359729</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910242</v>
+        <v>146.8461210887084</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582151</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611824</v>
+        <v>40.67946607761132</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527766</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359729</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582151</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611858</v>
+        <v>40.67946607761132</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527766</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359729</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>79.36419403766338</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>367.3212256695511</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>346.8510173961054</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>46.91035786611126</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>9.011523491339634</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605662</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>174.5799468423664</v>
+        <v>240.3006435944649</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335306</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>68.38641580050587</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>4.439609785297036</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.07246370705055016</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.9234172942179393</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>8.210019215864957</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>65.2856027012083</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>77.32360633674035</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.945510257113012</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.05036821604825129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N6" t="n">
-        <v>189.1706736602747</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>275.1769923091013</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>41.7718465704379</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>89.09617631718123</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>131.125993899784</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>64.79632291040809</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998329</v>
+        <v>40.01831452431463</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069201</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>32.44591292034803</v>
+        <v>98.16660967244661</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920032</v>
+        <v>76.35391775679324</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.402291260945191</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.824074272394256</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.62248565813573</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N6" t="n">
-        <v>57.82896157694136</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>143.835280225768</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911962</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264954</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347742</v>
+        <v>9584464.6430544</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8778504.334061947</v>
+        <v>8343623.81569186</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.04897529147647</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345808</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887086</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.41405905276482</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>99.26011913308297</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.51926550671388</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354543</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E8" t="n">
-        <v>39.70122005611984</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.362414515198</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="Y9" t="n">
-        <v>171.100474487651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>199.2385630672003</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>351.0964192978445</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>15.00346216849106</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>36.29946757904882</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969292</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.12830321063452</v>
+        <v>180.2959383279811</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>273.1839120264663</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>141.0331462360212</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>11.20062166050168</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247811</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>68.02930569165426</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>9.93035389103977</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>5.648630020763175</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>37.84125266805163</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.86119468661601</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>187.3054829296174</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>96.97390940101978</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824781</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609202</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.28185552386407</v>
+        <v>72.08802744677315</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>140.5582313120315</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>252.2078066367796</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>18.56488642963173</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>43.58035547795852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>8.296101769923858</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>107.0704956909094</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>341.1246749400959</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>281.841801725266</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>3.013844480175844</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.5231054558184</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>108.5262022477614</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>122.0065063168757</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>240.2648719523401</v>
+        <v>200.805213622945</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.118847112890157</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>206.8973285420759</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>139.1071548763972</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>200.1365534425737</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>65.79537822841607</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.4348925031071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>261.6839624475261</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>205.6626697667468</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>153.2230134806006</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>168.1158122680963</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>192.7289507760709</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U46" t="n">
-        <v>1.154551188815767</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.7256538725949</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="C2" t="n">
-        <v>142.396238631475</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709669</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709669</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709669</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709669</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779182994</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588561</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Y2" t="n">
-        <v>439.0550691137147</v>
+        <v>370.6597971564088</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.6518274448594</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C3" t="n">
-        <v>212.6518274448594</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D3" t="n">
-        <v>212.6518274448594</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>64.32241220373959</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616817</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415667</v>
+        <v>43.08143125983008</v>
       </c>
       <c r="M3" t="n">
-        <v>248.1447726172889</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N3" t="n">
-        <v>393.5224324951104</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O3" t="n">
-        <v>511.7941057756092</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R3" t="n">
-        <v>509.3106579270991</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S3" t="n">
-        <v>509.3106579270991</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T3" t="n">
-        <v>360.9812426859793</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="U3" t="n">
-        <v>360.9812426859793</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V3" t="n">
-        <v>360.9812426859793</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W3" t="n">
-        <v>212.6518274448594</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X3" t="n">
-        <v>212.6518274448594</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y3" t="n">
-        <v>212.6518274448594</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543243</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510274</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>439.0550691137147</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C5" t="n">
-        <v>290.7256538725949</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D5" t="n">
-        <v>290.7256538725949</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E5" t="n">
-        <v>290.7256538725949</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F5" t="n">
-        <v>290.7256538725949</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G5" t="n">
-        <v>142.396238631475</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
-        <v>142.396238631475</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458395</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066255</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588561</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735304</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548345</v>
+        <v>348.704346521884</v>
       </c>
       <c r="V5" t="n">
-        <v>587.3844843548345</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="W5" t="n">
-        <v>587.3844843548345</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="X5" t="n">
-        <v>439.0550691137147</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="Y5" t="n">
-        <v>439.0550691137147</v>
+        <v>122.2141240472906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137147</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="C6" t="n">
-        <v>439.0550691137147</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="D6" t="n">
-        <v>290.7256538725949</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="E6" t="n">
-        <v>290.7256538725949</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="F6" t="n">
-        <v>144.1910958994798</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="G6" t="n">
-        <v>73.96961558966784</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="H6" t="n">
-        <v>73.96961558966784</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616815</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415666</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>286.538206975247</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>431.9158668530686</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O6" t="n">
-        <v>550.1875401335673</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P6" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548345</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548345</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548345</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548345</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137147</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137147</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137147</v>
+        <v>212.6103586555849</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.1259580354324</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510269</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665703</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665703</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665703</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665703</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665703</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665703</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665703</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487949</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487949</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487949</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="E8" t="n">
-        <v>520.5803211678658</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513811</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678535</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159059007</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079192</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644761</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123834</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020267</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652798</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652798</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652798</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652798</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652798</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652798</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652798</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652798</v>
+        <v>457.1468919688944</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.5707260946529</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C9" t="n">
-        <v>236.5707260946529</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D9" t="n">
-        <v>236.5707260946529</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E9" t="n">
-        <v>236.5707260946529</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F9" t="n">
-        <v>90.03616812153786</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>90.03616812153786</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>90.03616812153786</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296057</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024242</v>
+        <v>50.41925783498756</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>386.8913402620005</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476349</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652798</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198761</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T9" t="n">
-        <v>409.3994882033913</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="U9" t="n">
-        <v>409.3994882033913</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="V9" t="n">
-        <v>409.3994882033913</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="W9" t="n">
-        <v>409.3994882033913</v>
+        <v>140.291061014344</v>
       </c>
       <c r="X9" t="n">
-        <v>409.3994882033913</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y9" t="n">
-        <v>236.5707260946529</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230173</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170711</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396326</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828975</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.438433460088</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.475916519677</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.210217912926</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301903</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794324</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="W11" t="n">
-        <v>2403.03827352421</v>
+        <v>1815.691171634541</v>
       </c>
       <c r="X11" t="n">
-        <v>2403.03827352421</v>
+        <v>1815.691171634541</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.03827352421</v>
+        <v>1815.691171634541</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>846.0707711116521</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>522.6833321692739</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>216.9113191907032</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562329</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504522</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>504.1959674104399</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789495</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.885386873581</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128147</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.753048689048</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.227047333488</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>1766.227047333488</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>1766.227047333488</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>1766.227047333488</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>1766.227047333488</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1531.074939101745</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1276.837582373544</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1068.986082168011</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>861.2257834030572</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.2513404403938</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="C13" t="n">
-        <v>361.3151575124869</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981536</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>185.7706748018944</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588485</v>
+        <v>287.1411594927335</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886961</v>
+        <v>393.9588065377465</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>472.3091036033665</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="S13" t="n">
-        <v>729.2011216450119</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="T13" t="n">
-        <v>729.2011216450119</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="U13" t="n">
-        <v>729.2011216450119</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="V13" t="n">
-        <v>729.2011216450119</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="W13" t="n">
-        <v>729.2011216450119</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="X13" t="n">
-        <v>729.2011216450119</v>
+        <v>520.2893470405998</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.8998052706336</v>
+        <v>338.1722376183966</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1632.511388127729</v>
+        <v>1142.319631181016</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.548871187317</v>
+        <v>1142.319631181016</v>
       </c>
       <c r="D14" t="n">
-        <v>905.2831725805665</v>
+        <v>784.0539325742659</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>398.2656799760217</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>398.2656799760217</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>1826.151173794701</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>1826.151173794701</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>1495.08828645113</v>
       </c>
       <c r="W14" t="n">
-        <v>2392.57698645293</v>
+        <v>1142.319631181016</v>
       </c>
       <c r="X14" t="n">
-        <v>2019.11122819185</v>
+        <v>1142.319631181016</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.11122819185</v>
+        <v>1142.319631181016</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>646.2653722158309</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1108.263027708986</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>854.0256709807848</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>854.0256709807848</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>646.2653722158309</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>449.8213709509852</v>
+        <v>510.2586865446004</v>
       </c>
       <c r="C16" t="n">
-        <v>449.8213709509852</v>
+        <v>341.3225036166935</v>
       </c>
       <c r="D16" t="n">
-        <v>449.8213709509852</v>
+        <v>341.3225036166935</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W16" t="n">
-        <v>631.4698357812249</v>
+        <v>510.2586865446004</v>
       </c>
       <c r="X16" t="n">
-        <v>631.4698357812249</v>
+        <v>510.2586865446004</v>
       </c>
       <c r="Y16" t="n">
-        <v>631.4698357812249</v>
+        <v>510.2586865446004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3177.09166559278</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2824.323010322666</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X17" t="n">
-        <v>2824.323010322666</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y17" t="n">
-        <v>2434.183678346854</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
@@ -5600,10 +5600,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5618,19 +5618,19 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
         <v>1525.370990471663</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.6772566376948</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7410737097879</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D19" t="n">
-        <v>91.62443429745213</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5712,13 +5712,13 @@
         <v>920.8870058181855</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812249</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X19" t="n">
-        <v>631.4698357812249</v>
+        <v>731.6895483135214</v>
       </c>
       <c r="Y19" t="n">
-        <v>410.6772566376948</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1715.892666966217</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1715.892666966217</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
         <v>1617.939223126803</v>
@@ -5755,22 +5755,22 @@
         <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X20" t="n">
-        <v>2492.63183900615</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y20" t="n">
-        <v>2102.492507030338</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5870,7 +5870,7 @@
         <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218343</v>
@@ -5955,7 +5955,7 @@
         <v>920.8870058181855</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0164446829692</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1405.526882613611</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.548871187317</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D23" t="n">
-        <v>905.2831725805665</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E23" t="n">
-        <v>519.4949199823222</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
         <v>108.5090151927147</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y23" t="n">
-        <v>1792.126722677733</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6174,25 +6174,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T25" t="n">
-        <v>699.120390387711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U25" t="n">
-        <v>699.120390387711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V25" t="n">
-        <v>699.120390387711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.812782134349</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2711.786367705477</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2359.017712435363</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>1985.551954174283</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.412622198471</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6393,43 +6393,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>812.7349899687815</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.798686923957</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.836169983545</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D29" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535336</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y29" t="n">
-        <v>1619.798686923957</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.4463512838067</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>216.4463512838067</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>216.4463512838067</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>699.1203903877109</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U31" t="n">
-        <v>699.1203903877109</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V31" t="n">
-        <v>444.4359021818241</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W31" t="n">
-        <v>444.4359021818241</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X31" t="n">
-        <v>216.4463512838067</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.4463512838067</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.529887077737</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C32" t="n">
-        <v>934.5673701373257</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D32" t="n">
         <v>934.5673701373257</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.975386180638</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y32" t="n">
-        <v>1681.836054204827</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>361.3151575124868</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>361.3151575124868</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6894,16 +6894,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>542.9636223427266</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X34" t="n">
-        <v>542.9636223427266</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.9636223427266</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1904.487375535336</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1535.524858594925</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.259159988174</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796416</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>1904.487375535336</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1904.487375535336</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.9541770656748</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7134,13 +7134,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>918.7467562092049</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>918.7467562092049</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>697.9541770656748</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1278.358723975039</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>957.5907980264815</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>546.604893236874</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7207,19 +7207,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2428.563654276052</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2055.097896014972</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.958564039161</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>132.9720944406845</v>
       </c>
       <c r="F40" t="n">
         <v>66.5121164321834</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>444.4359021818241</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>444.4359021818241</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X40" t="n">
-        <v>216.4463512838067</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1944.904841306683</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C41" t="n">
-        <v>1575.942324366272</v>
+        <v>1475.375487024174</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>731.3215358191796</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>731.3215358191796</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>316.2490856641761</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,13 +7423,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7447,16 +7447,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
@@ -7490,46 +7490,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>666.202517612298</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>666.202517612298</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>516.0858781999623</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>368.1727846175692</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>221.2828371196588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U43" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V43" t="n">
-        <v>666.202517612298</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>666.202517612298</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X43" t="n">
-        <v>666.202517612298</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y43" t="n">
-        <v>666.202517612298</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.5121164321834</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3155.791869823214</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>3155.791869823214</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2340.359002069041</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>1966.893243807961</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.9541770656748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
         <v>66.5121164321834</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>699.1203903877109</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U46" t="n">
-        <v>697.9541770656748</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>697.9541770656748</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>697.9541770656748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X46" t="n">
-        <v>697.9541770656748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y46" t="n">
-        <v>697.9541770656748</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.4267706822989</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D2" t="n">
-        <v>225.3409781657484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>239.0160892812485</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328738</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880636</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.79895936669232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>93.02023710190741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827331</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081595</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.848862072211</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="4">
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>145.653503011476</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818781</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776027</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474364</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482526</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270549</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C5" t="n">
-        <v>218.4267706822989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>266.398015971523</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>1.769632077807984</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880639</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>152.443699216152</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924893</v>
       </c>
       <c r="X5" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.598944475930125</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>58.38496132231798</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>66.72280330932838</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345809</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W6" t="n">
-        <v>104.848862072211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22950,55 +22950,55 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>125.0199035938044</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818782</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.7289579877603</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474393</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482527</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.1813952927055</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>220.6517791023747</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496407</v>
       </c>
       <c r="E8" t="n">
-        <v>342.2291500161419</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637381</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666381</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>208.3898439549369</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846321</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681299</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>78.34310720762346</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.58222128965335</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825419</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,31 +23217,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709389</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159727</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>199.9216970693937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.9301797015393</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>183.4952785962803</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.83395077441725</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708293</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>151.5297214813763</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185513</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721426</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923919</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425548</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.4563501414603</v>
+        <v>38.28871502411369</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>138.6868228171605</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>208.2078224813918</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>161.507877327814</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>78.40465695491491</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.5926444455512</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>377.0852116427174</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>289.9110058020833</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>121.5727679599532</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>38.40417245941975</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>257.7091322196632</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.3027978282307</v>
+        <v>146.4966259053217</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>224.7146604589761</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>134.030132019274</v>
       </c>
     </row>
     <row r="24">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>117.6809978846692</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>267.9581119069593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1719029921764</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>377.9418368861297</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>112.4784535852598</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>41.60916672338465</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>104.3961369307876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>143.4201181663933</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>161.2670937523056</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.210736207662137</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>277.7117364082922</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25134,10 +25134,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>164.5164920197153</v>
+        <v>214.4349708898184</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>141.6654981199216</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>284.4041512237009</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>11.68732481001891</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>271.8145707770562</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>149.1044152748393</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>79.62566979451518</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,22 +25602,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.14976084898771</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>121.0498792159544</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>88.94509462057366</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>12.8027947784276</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,16 +25839,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25918,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>82.8793596908057</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>156.5120179413422</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U46" t="n">
-        <v>285.0572870167971</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>409992.2446053786</v>
+        <v>362616.6230072703</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409992.2446053786</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441595.05806134</v>
+        <v>408111.9599248167</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.5900271862</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.5900271862</v>
+        <v>684371.1989135401</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271867</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131506.9463828572</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>131506.9463828572</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>141643.6978687317</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175505</v>
       </c>
       <c r="F2" t="n">
-        <v>279684.8307634371</v>
+        <v>219515.2902175505</v>
       </c>
       <c r="G2" t="n">
         <v>279684.830763437</v>
@@ -26334,28 +26334,28 @@
         <v>279684.830763437</v>
       </c>
       <c r="I2" t="n">
-        <v>279684.8307634372</v>
+        <v>279684.830763437</v>
       </c>
       <c r="J2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="K2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="L2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.8307634369</v>
       </c>
       <c r="M2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="N2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="O2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="P2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751305</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074445</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.643633668</v>
+        <v>394942.2080289247</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>262827.3641644178</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613402</v>
+        <v>24245.22799179786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.218442393711</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904873</v>
+        <v>8241.274813353612</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>99043.5879329365</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.08519290911</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602629</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723339</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061234</v>
+        <v>384.3219252469139</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>384.3219252469141</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061234</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>51571.48185587228</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139331</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.1420374581</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.29293767233</v>
+        <v>46295.67344995515</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.23147926669</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957988</v>
+        <v>-228144.0596041097</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.847834868</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.847834868</v>
+        <v>-58440.92048919722</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.8478348683</v>
+        <v>204386.4436752208</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.441328734</v>
+        <v>180141.2156834228</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.847834868</v>
+        <v>199381.2252328269</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858193</v>
+        <v>196145.1688618669</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699056</v>
+        <v>105342.8557422841</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.8478348679</v>
+        <v>134769.3584823116</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129045</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>853.7106645376846</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593299</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
+        <v>542.1149567261638</v>
+      </c>
+      <c r="F4" t="n">
+        <v>542.1149567261638</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,10 +26813,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568363</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>343.8814983365343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.0660360556137</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761132</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551215</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.286498676129</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887084</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761132</v>
+        <v>32.56249654611824</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551215</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.286498676129</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761132</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551215</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.286498676129</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766338</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695511</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961054</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611126</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339634</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>174.5829003017953</v>
       </c>
       <c r="M3" t="n">
-        <v>240.3006435944649</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914129</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711235</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050587</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297036</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864957</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.2856027012083</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674035</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113012</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986736</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
-        <v>171.5470783449032</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>235.9393707926325</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>3.432002671508277</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958415</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>291.2869367409259</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>436.5636098258714</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>541.5957615840429</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>602.6296390934782</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>612.3808166839011</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>578.2538401190907</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>493.52627416623</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>370.6176784928397</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>215.585537814132</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>78.20676087699495</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.2745602137206621</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>1.836283316175397</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>63.22291242095118</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>398.70704196168</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>465.272312173038</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>477.5866858152845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>436.8985133884507</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>350.6495746475633</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349507</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>34.1081572105386</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>7.401510384057848</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>46.29630948017477</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>178.8593818490427</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>241.3202129282507</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>217.5982526595397</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>186.1928964099893</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>69.22054011153092</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>26.8289072773564</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>6.577770693978879</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419858</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.7718465704379</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718123</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.125993899784</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040809</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431463</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>36.02852052192112</v>
       </c>
       <c r="M3" t="n">
-        <v>98.16660967244661</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679324</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945191</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394256</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813573</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.0183145243146</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>37.57267093057298</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945162</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394228</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.6224856581357</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781463</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>104.5976587092992</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646075</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061149</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520823</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>110.2410322142396</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>216.4737587808908</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>305.8293466140556</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>372.2834058662055</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873102</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>348.1556286974039</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>262.2932784109605</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>148.3119886183902</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>46.65087734093959</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>260.1526621818058</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>323.1382782510197</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>346.2449737319512</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>294.3022689440062</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>216.6751672332331</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892918</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>49.84612367850733</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>93.99375335563539</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806456</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>79.14171420769694</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>48.46489236084173</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
